--- a/NhatKy-Angular/10.設計書/database-design.xlsx
+++ b/NhatKy-Angular/10.設計書/database-design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -182,47 +182,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>umber</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>0：日記、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1:コメント</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>ニッキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>日記またはコメントID</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -267,6 +226,20 @@
   </si>
   <si>
     <t>メール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>isDiary</t>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>true：日記、false:コメント</t>
+    <rPh sb="5" eb="7">
+      <t>ニッキ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -706,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -818,7 +791,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -826,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>37</v>
@@ -837,7 +810,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -850,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>37</v>
@@ -904,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -933,10 +906,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -946,7 +919,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -954,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>37</v>
@@ -965,7 +938,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1000,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
